--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:10:45+00:00</t>
+    <t>2023-10-18T09:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:59:58+00:00</t>
+    <t>2023-10-30T06:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T06:51:40+00:00</t>
+    <t>2023-10-30T14:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T14:50:06+00:00</t>
+    <t>2023-10-31T07:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T07:29:19+00:00</t>
+    <t>2023-11-02T14:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:53:48+00:00</t>
+    <t>2023-11-02T15:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -525,7 +525,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>Possible values: proposal (default in contained and instance of proposal), order (default in prescriptions), reflex-proposal (automatically created orders due to an ad-hoc prescription)</t>
+    <t>Possible values: proposal (default in contained and instance of proposal), order (default in prescriptions), reflex-order (automatically created orders due to an ad-hoc prescription)</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, or an original order.</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T15:29:05+00:00</t>
+    <t>2023-11-02T16:07:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:07:15+00:00</t>
+    <t>2023-11-02T16:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:13:26+00:00</t>
+    <t>2023-11-06T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T13:21:24+00:00</t>
+    <t>2023-11-13T14:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:25:45+00:00</t>
+    <t>2023-11-13T15:09:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:09:52+00:00</t>
+    <t>2023-11-13T17:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T17:03:00+00:00</t>
+    <t>2023-11-14T19:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T19:51:51+00:00</t>
+    <t>2023-11-28T16:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T16:40:15+00:00</t>
+    <t>2023-11-29T13:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:44:06+00:00</t>
+    <t>2023-11-29T14:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="685">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:01:28+00:00</t>
+    <t>2023-11-29T14:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -871,7 +871,7 @@
 </t>
   </si>
   <si>
-    <t>Information to support fulfilling of the medication</t>
+    <t>First Element is reserved for reference to origin (LINCARequestOrchestration) assigned on LinkedCare Platform. Used to link instantiated proposal items back to the proposal header (LINCARequestOrchestration).</t>
   </si>
   <si>
     <t>Information to support fulfilling (i.e. dispensing or administering) of the medication, for example, patient height and weight, a MedicationStatement for the patient).</t>
@@ -880,26 +880,10 @@
     <t>This attribute can be used to reference a MedicationStatement about the patients' medication use.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:text}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.supportingInformation:listref</t>
-  </si>
-  <si>
-    <t>listref</t>
-  </si>
-  <si>
-    <t>Reference to origin (LINCARequestOrchestration) assigned on LinkedCare Platform. Used to link instantiated proposal items back to the proposal header (LINCARequestOrchestration).</t>
   </si>
   <si>
     <t>MedicationRequest.authoredOn</t>
@@ -1231,6 +1215,9 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2465,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5510,14 +5497,16 @@
         <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>268</v>
@@ -5535,7 +5524,7 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -5544,7 +5533,7 @@
         <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5552,14 +5541,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5577,20 +5564,18 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5639,13 +5624,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -5654,27 +5639,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5682,7 +5667,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5697,13 +5682,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5754,7 +5739,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5769,27 +5754,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5797,7 +5782,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5812,7 +5797,7 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>290</v>
@@ -5820,7 +5805,9 @@
       <c r="M29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5856,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5884,16 +5871,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5927,7 +5914,7 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>295</v>
@@ -5962,13 +5949,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -6001,7 +5988,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -6010,7 +5997,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -6018,10 +6005,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6029,7 +6016,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -6041,20 +6028,18 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6079,37 +6064,37 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -6118,16 +6103,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6135,10 +6120,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6146,10 +6131,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6161,13 +6146,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6218,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6233,16 +6218,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6250,10 +6235,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6264,7 +6249,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6276,13 +6261,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6333,13 +6318,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -6354,10 +6339,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6365,10 +6350,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6379,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6391,15 +6376,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6424,13 +6411,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6448,13 +6435,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -6463,27 +6450,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6494,7 +6481,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6506,16 +6493,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6541,13 +6528,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6565,13 +6552,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -6580,27 +6567,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6611,7 +6598,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6623,17 +6610,15 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6658,13 +6643,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6682,13 +6667,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -6697,7 +6682,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -6706,7 +6691,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6714,10 +6699,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6740,13 +6725,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6797,7 +6782,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6812,16 +6797,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6829,10 +6814,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6843,7 +6828,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6855,16 +6840,18 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6912,13 +6899,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6927,16 +6914,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6944,10 +6931,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6970,18 +6957,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -7029,7 +7014,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7075,7 +7060,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -7095,7 +7080,9 @@
       <c r="M40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7150,7 +7137,7 @@
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -7168,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7176,10 +7163,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7190,7 +7177,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7202,7 +7189,7 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>370</v>
@@ -7210,9 +7197,7 @@
       <c r="M41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7261,19 +7246,19 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7285,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7293,21 +7278,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7319,15 +7304,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7364,31 +7351,31 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7400,7 +7387,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7408,14 +7395,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7428,24 +7415,26 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7481,19 +7470,19 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7517,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7525,45 +7514,43 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>146</v>
+        <v>390</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7612,19 +7599,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7636,18 +7623,18 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7670,17 +7657,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7729,7 +7716,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7753,18 +7740,18 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7775,7 +7762,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7787,17 +7774,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7822,13 +7811,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7846,13 +7835,13 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7870,18 +7859,18 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7892,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7904,20 +7893,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7941,13 +7926,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7965,13 +7950,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7989,10 +7974,10 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
@@ -8023,16 +8008,20 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8080,7 +8069,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8104,18 +8093,18 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8138,20 +8127,18 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>419</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8199,7 +8186,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8208,7 +8195,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -8223,18 +8210,18 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8245,7 +8232,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8257,16 +8244,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8292,13 +8279,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8316,16 +8303,16 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -8340,18 +8327,18 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8362,7 +8349,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8377,15 +8364,17 @@
         <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8412,10 +8401,10 @@
         <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8433,16 +8422,16 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -8457,18 +8446,18 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8494,16 +8483,14 @@
         <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8531,10 +8518,10 @@
         <v>192</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8552,7 +8539,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8576,18 +8563,18 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8613,14 +8600,16 @@
         <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8648,10 +8637,10 @@
         <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8669,7 +8658,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8693,18 +8682,18 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8715,7 +8704,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8727,20 +8716,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8764,13 +8749,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8788,13 +8773,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8812,18 +8797,18 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8834,7 +8819,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8843,16 +8828,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8903,19 +8888,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8927,29 +8912,29 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8961,15 +8946,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9006,31 +8993,31 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9042,7 +9029,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -9050,21 +9037,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -9073,21 +9060,21 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>138</v>
+        <v>476</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9111,43 +9098,43 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>481</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9159,18 +9146,18 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9193,17 +9180,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9228,31 +9217,29 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9276,20 +9263,22 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9307,22 +9296,22 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9359,17 +9348,19 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9381,7 +9372,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>499</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9393,22 +9384,20 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9429,20 +9418,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>91</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9490,7 +9475,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9499,10 +9484,10 @@
         <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9514,29 +9499,29 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>504</v>
+        <v>374</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9548,15 +9533,17 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9593,31 +9580,31 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9629,7 +9616,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9637,21 +9624,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9660,21 +9647,23 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>138</v>
+        <v>509</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9710,31 +9699,31 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9746,18 +9735,18 @@
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>379</v>
+        <v>514</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9768,36 +9757,36 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>512</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9817,13 +9806,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9841,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9865,18 +9854,18 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9887,36 +9876,34 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q64" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9936,13 +9923,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9960,7 +9947,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9984,18 +9971,18 @@
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10018,17 +10005,17 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10077,7 +10064,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10086,7 +10073,7 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
@@ -10101,18 +10088,18 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10135,17 +10122,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10170,13 +10159,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10194,7 +10181,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10203,7 +10190,7 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>101</v>
@@ -10218,18 +10205,18 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10252,19 +10239,19 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>553</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10289,11 +10276,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10300,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10320,7 +10309,7 @@
         <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>101</v>
@@ -10335,18 +10324,18 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10357,7 +10346,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10369,19 +10358,19 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10430,13 +10419,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -10454,18 +10443,18 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10476,7 +10465,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10488,19 +10477,19 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10549,13 +10538,13 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
@@ -10573,18 +10562,18 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10607,19 +10596,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10668,7 +10655,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10692,7 +10679,7 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10700,10 +10687,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10723,21 +10710,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>584</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10785,7 +10770,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10803,13 +10788,13 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10817,10 +10802,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10843,13 +10828,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>587</v>
+        <v>395</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>588</v>
+        <v>370</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>589</v>
+        <v>371</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10900,7 +10885,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>586</v>
+        <v>372</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10909,22 +10894,22 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>591</v>
+        <v>374</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10932,21 +10917,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10958,15 +10943,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11015,19 +11002,19 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -11039,7 +11026,7 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11047,14 +11034,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11067,24 +11054,26 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11132,7 +11121,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>384</v>
+        <v>591</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11156,7 +11145,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11164,46 +11153,44 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>137</v>
+        <v>583</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>387</v>
+        <v>593</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>388</v>
+        <v>594</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11251,19 +11238,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11275,7 +11262,7 @@
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>134</v>
+        <v>596</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11283,10 +11270,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11309,17 +11296,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>587</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>597</v>
+        <v>370</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11368,7 +11353,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>596</v>
+        <v>372</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11377,10 +11362,10 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11392,7 +11377,7 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11400,21 +11385,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11426,15 +11411,17 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11483,19 +11470,19 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11507,7 +11494,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11515,14 +11502,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11535,24 +11522,26 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11600,7 +11589,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>384</v>
+        <v>591</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11624,7 +11613,7 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11632,46 +11621,42 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>137</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
+        <v>601</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11719,19 +11704,19 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11743,7 +11728,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>134</v>
+        <v>603</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11777,13 +11762,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11858,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11866,10 +11851,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11892,7 +11877,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>610</v>
@@ -11949,7 +11934,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11973,7 +11958,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11981,10 +11966,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12007,16 +11992,20 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>609</v>
+        <v>359</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12064,7 +12053,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12082,13 +12071,13 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12096,10 +12085,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12122,20 +12111,18 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>620</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12183,7 +12170,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12201,24 +12188,24 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12241,17 +12228,15 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>624</v>
+        <v>495</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12300,7 +12285,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12318,24 +12303,24 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12358,15 +12343,17 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12415,7 +12402,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12433,24 +12420,24 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12473,17 +12460,15 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12532,7 +12517,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12550,13 +12535,13 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12564,10 +12549,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12578,7 +12563,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12590,7 +12575,7 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>644</v>
+        <v>346</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>645</v>
@@ -12647,13 +12632,13 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
@@ -12668,7 +12653,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>647</v>
@@ -12693,7 +12678,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12705,7 +12690,7 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>649</v>
@@ -12738,13 +12723,11 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12768,7 +12751,7 @@
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
@@ -12786,7 +12769,7 @@
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12794,10 +12777,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12820,13 +12803,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>188</v>
+        <v>583</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12853,11 +12836,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y89" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z89" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12875,7 +12860,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12893,13 +12878,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12907,10 +12892,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12933,13 +12918,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>395</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12990,7 +12975,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>657</v>
+        <v>372</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12999,22 +12984,22 @@
         <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>661</v>
+        <v>374</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13022,21 +13007,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13048,15 +13033,17 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13105,19 +13092,19 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13129,7 +13116,7 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13137,14 +13124,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13157,24 +13144,26 @@
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13222,7 +13211,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>384</v>
+        <v>591</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13246,7 +13235,7 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13254,46 +13243,44 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>662</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>387</v>
+        <v>663</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>388</v>
+        <v>664</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13317,13 +13304,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13341,42 +13328,42 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>134</v>
+        <v>669</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>79</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13384,7 +13371,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13399,17 +13386,15 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>666</v>
+        <v>188</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>669</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13434,34 +13419,34 @@
         <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>670</v>
+        <v>192</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>89</v>
@@ -13476,24 +13461,24 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>660</v>
+        <v>169</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13504,7 +13489,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13516,15 +13501,17 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>188</v>
+        <v>679</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13549,37 +13536,37 @@
         <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -13588,135 +13575,18 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>79</v>
+        <v>683</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="AO96" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-proposal-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:08:43+00:00</t>
+    <t>2023-11-29T14:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
